--- a/routerlist.xlsx
+++ b/routerlist.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple2/Library/Mobile Documents/com~apple~CloudDocs/Freifunk/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ECF5DC-58C7-944F-8D35-25B01DF25B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Freifunk Router" sheetId="1" r:id="rId1"/>
@@ -22,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
-    <t>Gerätenummer</t>
-  </si>
-  <si>
-    <t>Typ</t>
-  </si>
-  <si>
-    <t>Träger</t>
-  </si>
-  <si>
-    <t>Ortsteil</t>
-  </si>
-  <si>
-    <t>Standort</t>
-  </si>
-  <si>
-    <t>Bemerkung</t>
+    <t>DeviceID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Karte</t>
+    <t>MapLink</t>
   </si>
   <si>
     <t>IP</t>
@@ -79,67 +73,67 @@
     <t>Backup</t>
   </si>
   <si>
+    <t>Ubiquiti AP AC Pro</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>District 1</t>
+  </si>
+  <si>
+    <t>Main Street 10</t>
+  </si>
+  <si>
     <t>UBNT-ERX-SFP</t>
   </si>
   <si>
-    <t>Ubiquiti AP AC Pro</t>
+    <t>Tim Taylor</t>
+  </si>
+  <si>
+    <t>Smallville</t>
+  </si>
+  <si>
+    <t>Green Road 1</t>
+  </si>
+  <si>
+    <t>Some Note</t>
+  </si>
+  <si>
+    <t>TaylorsNode1</t>
+  </si>
+  <si>
+    <t>https://Link.to.your.gluon.map/deviceID</t>
+  </si>
+  <si>
+    <t>2a03:2260:3013:400:7683:c2ff:fefd:XXXX</t>
+  </si>
+  <si>
+    <t>Some more Notes</t>
+  </si>
+  <si>
+    <t>Districtrouter</t>
+  </si>
+  <si>
+    <t>2a03:2260:3013:400:76ac:b9ff:fea6:YYYY</t>
   </si>
   <si>
     <t>TP-Link Archer C7</t>
   </si>
   <si>
-    <t>Tim Taylor</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
     <t>Max Hammer</t>
   </si>
   <si>
-    <t>Smallville</t>
-  </si>
-  <si>
-    <t>District 1</t>
-  </si>
-  <si>
     <t>Lower Lake Side</t>
   </si>
   <si>
-    <t>Green Road 1</t>
-  </si>
-  <si>
-    <t>Main Street 10</t>
-  </si>
-  <si>
     <t>Lakeview 5</t>
   </si>
   <si>
-    <t>Some Note</t>
-  </si>
-  <si>
-    <t>Some more Notes</t>
-  </si>
-  <si>
     <t>No more Notes</t>
   </si>
   <si>
-    <t>TaylorsNode1</t>
-  </si>
-  <si>
-    <t>Districtrouter</t>
-  </si>
-  <si>
     <t>LLS-LV5</t>
-  </si>
-  <si>
-    <t>https://Link.to.your.gluon.map/deviceID</t>
-  </si>
-  <si>
-    <t>2a03:2260:3013:400:7683:c2ff:fefd:XXXX</t>
-  </si>
-  <si>
-    <t>2a03:2260:3013:400:76ac:b9ff:fea6:YYYY</t>
   </si>
   <si>
     <t>2a03:2260:3013:500:76ac:b9ff:fea1:ZZZZ</t>
@@ -148,8 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -176,67 +170,88 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="decimals" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="ints" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+  <cellStyles count="2">
+    <cellStyle name="ints" xfId="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Freifunk Router" displayName="Freifunk_Router" ref="A1:S4">
-  <autoFilter ref="A1:S4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Freifunk Router" displayName="Freifunk_Router" ref="A1:S4">
+  <autoFilter ref="A1:S4"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Gerätenummer"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Typ"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Träger"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ortsteil"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Standort"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Bemerkung"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Name"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Karte"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="IP"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Outdoor"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Domain"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="VPNMesh"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Speedlimit"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Branch"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Autoupdater"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="SSHKeys"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Release"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="VLAN"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Backup"/>
+    <tableColumn id="1" name="DeviceID" dataDxfId="1" dataCellStyle="ints"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Owner"/>
+    <tableColumn id="4" name="District"/>
+    <tableColumn id="5" name="Location"/>
+    <tableColumn id="6" name="Notes"/>
+    <tableColumn id="7" name="Name"/>
+    <tableColumn id="8" name="MapLink" dataDxfId="0"/>
+    <tableColumn id="9" name="IP"/>
+    <tableColumn id="10" name="Outdoor"/>
+    <tableColumn id="11" name="Domain"/>
+    <tableColumn id="12" name="VPNMesh"/>
+    <tableColumn id="13" name="Speedlimit"/>
+    <tableColumn id="14" name="Branch"/>
+    <tableColumn id="15" name="Autoupdater"/>
+    <tableColumn id="16" name="SSHKeys"/>
+    <tableColumn id="17" name="Release"/>
+    <tableColumn id="18" name="VLAN"/>
+    <tableColumn id="19" name="Backup"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,44 +259,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -309,31 +324,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -361,26 +359,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,175 +370,201 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,110 +623,98 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="R3" s="1"/>
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="R4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/routerlist.xlsx
+++ b/routerlist.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andi\iCloudDrive\Freifunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA0C57-F8A8-459D-9635-6F23D1DABD13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15093" windowHeight="9469" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Freifunk Router" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>DeviceID</t>
   </si>
@@ -31,6 +37,15 @@
     <t>Location</t>
   </si>
   <si>
+    <t>LocalContactName</t>
+  </si>
+  <si>
+    <t>LocalContactPhone</t>
+  </si>
+  <si>
+    <t>LocalContactMail</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -73,6 +88,27 @@
     <t>Backup</t>
   </si>
   <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>1.0.4.1</t>
+  </si>
+  <si>
+    <t>ff_nh_burgwald</t>
+  </si>
+  <si>
+    <t>UBNT-ERX-SFP</t>
+  </si>
+  <si>
+    <t>Tim Taylor</t>
+  </si>
+  <si>
+    <t>Smallville</t>
+  </si>
+  <si>
+    <t>Green Road 1</t>
+  </si>
+  <si>
     <t>Ubiquiti AP AC Pro</t>
   </si>
   <si>
@@ -85,16 +121,43 @@
     <t>Main Street 10</t>
   </si>
   <si>
-    <t>UBNT-ERX-SFP</t>
-  </si>
-  <si>
-    <t>Tim Taylor</t>
-  </si>
-  <si>
-    <t>Smallville</t>
-  </si>
-  <si>
-    <t>Green Road 1</t>
+    <t>TP-Link Archer C7</t>
+  </si>
+  <si>
+    <t>Max Hammer</t>
+  </si>
+  <si>
+    <t>Lower Lake Side</t>
+  </si>
+  <si>
+    <t>Lakeview 5</t>
+  </si>
+  <si>
+    <t>Mike Mueller</t>
+  </si>
+  <si>
+    <t>Severus Snider</t>
+  </si>
+  <si>
+    <t>Doc Brown</t>
+  </si>
+  <si>
+    <t>01234-5678910</t>
+  </si>
+  <si>
+    <t>109876-543210</t>
+  </si>
+  <si>
+    <t>12345-12345</t>
+  </si>
+  <si>
+    <t>mike@example.org</t>
+  </si>
+  <si>
+    <t>doc@example.org</t>
+  </si>
+  <si>
+    <t>severus@example.org</t>
   </si>
   <si>
     <t>Some Note</t>
@@ -116,18 +179,6 @@
   </si>
   <si>
     <t>2a03:2260:3013:400:76ac:b9ff:fea6:YYYY</t>
-  </si>
-  <si>
-    <t>TP-Link Archer C7</t>
-  </si>
-  <si>
-    <t>Max Hammer</t>
-  </si>
-  <si>
-    <t>Lower Lake Side</t>
-  </si>
-  <si>
-    <t>Lakeview 5</t>
   </si>
   <si>
     <t>No more Notes</t>
@@ -142,8 +193,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -151,6 +202,17 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,45 +232,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ints" xfId="1"/>
+  <cellStyles count="4">
+    <cellStyle name="decimals" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="ints" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Link" xfId="3" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,42 +267,51 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Freifunk Router" displayName="Freifunk_Router" ref="A1:S4">
-  <autoFilter ref="A1:S4"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="DeviceID" dataDxfId="1" dataCellStyle="ints"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Owner"/>
-    <tableColumn id="4" name="District"/>
-    <tableColumn id="5" name="Location"/>
-    <tableColumn id="6" name="Notes"/>
-    <tableColumn id="7" name="Name"/>
-    <tableColumn id="8" name="MapLink" dataDxfId="0"/>
-    <tableColumn id="9" name="IP"/>
-    <tableColumn id="10" name="Outdoor"/>
-    <tableColumn id="11" name="Domain"/>
-    <tableColumn id="12" name="VPNMesh"/>
-    <tableColumn id="13" name="Speedlimit"/>
-    <tableColumn id="14" name="Branch"/>
-    <tableColumn id="15" name="Autoupdater"/>
-    <tableColumn id="16" name="SSHKeys"/>
-    <tableColumn id="17" name="Release"/>
-    <tableColumn id="18" name="VLAN"/>
-    <tableColumn id="19" name="Backup"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Freifunk Router" displayName="Freifunk_Router" ref="A1:V173">
+  <autoFilter ref="A1:V173" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:V173">
+    <sortCondition ref="E1:E173"/>
+  </sortState>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DeviceID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Owner"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="District"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Location"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="LocalContactName"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="LocalContactPhone" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LocalContactMail" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="IP"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="MapLink"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Name"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Outdoor"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Domain"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="VPNMesh"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Speedlimit"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Branch"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Autoupdater"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="SSHKeys"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Release"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="VLAN"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Backup"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,44 +319,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -324,14 +384,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -359,9 +436,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -370,201 +464,169 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="37" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,13 +655,13 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -622,104 +684,1876 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1"/>
+      <c r="E5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1"/>
+      <c r="E6" s="6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1"/>
+      <c r="E7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1"/>
+      <c r="E9" s="6"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="M9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1"/>
+      <c r="E10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="M10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="M11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="M12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="1"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="M13" s="1"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="1"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="M14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="M15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="M16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="M17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1"/>
+      <c r="E18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="M18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="M19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+      <c r="M20" s="1"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1"/>
+      <c r="E21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="M21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1"/>
+      <c r="E22" s="6"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="M22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1"/>
+      <c r="E23" s="6"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="M23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1"/>
+      <c r="E24" s="6"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="M25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1"/>
+      <c r="E26" s="6"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="M26" s="1"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1"/>
+      <c r="E27" s="6"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="M27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1"/>
+      <c r="E28" s="6"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="M28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1"/>
+      <c r="E29" s="6"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="M29" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1"/>
+      <c r="E30" s="6"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="M30" s="1"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="M31" s="1"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="M33" s="1"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="M34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="M35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="M36" s="1"/>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="M37" s="1"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="M38" s="1"/>
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="M39" s="1"/>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="M40" s="1"/>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="M41" s="1"/>
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="M42" s="1"/>
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="M43" s="1"/>
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="M44" s="1"/>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="M45" s="1"/>
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="M46" s="1"/>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="M47" s="1"/>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="M48" s="1"/>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="M49" s="1"/>
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4"/>
+      <c r="M50" s="1"/>
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="M51" s="1"/>
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="M52" s="1"/>
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="M53" s="1"/>
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="M54" s="1"/>
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="M55" s="1"/>
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4"/>
+      <c r="M56" s="1"/>
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
+      <c r="M57" s="1"/>
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="4"/>
+      <c r="M58" s="1"/>
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="1"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="M59" s="1"/>
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="M60" s="1"/>
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+      <c r="M61" s="1"/>
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="M62" s="1"/>
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="M63" s="1"/>
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="1"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
+      <c r="M64" s="1"/>
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="1"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="4"/>
+      <c r="M65" s="1"/>
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="1"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="4"/>
+      <c r="M66" s="1"/>
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="1"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
+      <c r="M67" s="1"/>
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="1"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+      <c r="M68" s="1"/>
+      <c r="U68" s="1"/>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="1"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="M69" s="1"/>
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="1"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+      <c r="M70" s="1"/>
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="1"/>
+      <c r="E71" s="6"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+      <c r="M71" s="1"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="1"/>
+      <c r="E72" s="6"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4"/>
+      <c r="M72" s="1"/>
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="1"/>
+      <c r="E73" s="6"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="4"/>
+      <c r="M73" s="1"/>
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="1"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="4"/>
+      <c r="M74" s="1"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="1"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="4"/>
+      <c r="M75" s="1"/>
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="1"/>
+      <c r="E76" s="6"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+      <c r="M76" s="1"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="1"/>
+      <c r="E77" s="6"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="M77" s="1"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="1"/>
+      <c r="E78" s="6"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+      <c r="M78" s="1"/>
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="1"/>
+      <c r="E79" s="6"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="6"/>
+      <c r="M79" s="1"/>
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="1"/>
+      <c r="E80" s="6"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="4"/>
+      <c r="M80" s="1"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="U80" s="1"/>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" s="1"/>
+      <c r="E81" s="6"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="4"/>
+      <c r="M81" s="1"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="U81" s="1"/>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="1"/>
+      <c r="E82" s="6"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="4"/>
+      <c r="M82" s="1"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="U82" s="1"/>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="1"/>
+      <c r="E83" s="6"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="4"/>
+      <c r="M83" s="1"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="U83" s="1"/>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="1"/>
+      <c r="E84" s="6"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="M84" s="1"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="U84" s="1"/>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="1"/>
+      <c r="E85" s="6"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+      <c r="M85" s="1"/>
+      <c r="U85" s="1"/>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" s="1"/>
+      <c r="E86" s="6"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+      <c r="M86" s="1"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="U86" s="1"/>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" s="1"/>
+      <c r="E87" s="6"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="4"/>
+      <c r="M87" s="1"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="U87" s="1"/>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" s="1"/>
+      <c r="E88" s="6"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="4"/>
+      <c r="M88" s="1"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="U88" s="1"/>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" s="1"/>
+      <c r="E89" s="6"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
+      <c r="M89" s="1"/>
+      <c r="U89" s="1"/>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" s="1"/>
+      <c r="E90" s="6"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="4"/>
+      <c r="M90" s="1"/>
+      <c r="U90" s="1"/>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" s="1"/>
+      <c r="E91" s="6"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
+      <c r="M91" s="1"/>
+      <c r="U91" s="1"/>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="1"/>
+      <c r="E92" s="6"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
+      <c r="M92" s="1"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="U92" s="1"/>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="1"/>
+      <c r="E93" s="6"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+      <c r="M93" s="1"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="U93" s="1"/>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" s="1"/>
+      <c r="E94" s="6"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="4"/>
+      <c r="M94" s="1"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="U94" s="1"/>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="A95" s="1"/>
+      <c r="E95" s="6"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="6"/>
+      <c r="M95" s="1"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="U95" s="1"/>
+    </row>
+    <row r="96" spans="1:21">
+      <c r="A96" s="1"/>
+      <c r="E96" s="6"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="4"/>
+      <c r="M96" s="1"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="U96" s="1"/>
+    </row>
+    <row r="97" spans="1:21">
+      <c r="A97" s="1"/>
+      <c r="E97" s="6"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="4"/>
+      <c r="M97" s="1"/>
+      <c r="U97" s="1"/>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="A98" s="1"/>
+      <c r="E98" s="6"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="4"/>
+      <c r="M98" s="1"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="U98" s="1"/>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="A99" s="1"/>
+      <c r="E99" s="6"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="4"/>
+      <c r="M99" s="1"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="U99" s="1"/>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="A100" s="1"/>
+      <c r="E100" s="6"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="4"/>
+      <c r="M100" s="1"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="U100" s="1"/>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="A101" s="1"/>
+      <c r="E101" s="6"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
+      <c r="M101" s="1"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="U101" s="1"/>
+    </row>
+    <row r="102" spans="1:21">
+      <c r="A102" s="1"/>
+      <c r="E102" s="6"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="4"/>
+      <c r="M102" s="1"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="U102" s="1"/>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103" s="1"/>
+      <c r="E103" s="6"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="4"/>
+      <c r="M103" s="1"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="U103" s="1"/>
+    </row>
+    <row r="104" spans="1:21">
+      <c r="A104" s="1"/>
+      <c r="E104" s="6"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="4"/>
+      <c r="M104" s="1"/>
+      <c r="U104" s="1"/>
+    </row>
+    <row r="105" spans="1:21">
+      <c r="A105" s="1"/>
+      <c r="E105" s="6"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="4"/>
+      <c r="M105" s="1"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="U105" s="1"/>
+    </row>
+    <row r="106" spans="1:21">
+      <c r="A106" s="1"/>
+      <c r="E106" s="6"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="4"/>
+      <c r="M106" s="1"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="U106" s="1"/>
+    </row>
+    <row r="107" spans="1:21">
+      <c r="A107" s="1"/>
+      <c r="E107" s="6"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="4"/>
+      <c r="M107" s="1"/>
+      <c r="U107" s="1"/>
+    </row>
+    <row r="108" spans="1:21">
+      <c r="A108" s="1"/>
+      <c r="E108" s="6"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="4"/>
+      <c r="M108" s="1"/>
+      <c r="U108" s="1"/>
+    </row>
+    <row r="109" spans="1:21">
+      <c r="A109" s="1"/>
+      <c r="E109" s="6"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="4"/>
+      <c r="M109" s="1"/>
+      <c r="U109" s="1"/>
+    </row>
+    <row r="110" spans="1:21">
+      <c r="A110" s="1"/>
+      <c r="E110" s="6"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="4"/>
+      <c r="M110" s="1"/>
+      <c r="U110" s="1"/>
+    </row>
+    <row r="111" spans="1:21">
+      <c r="A111" s="1"/>
+      <c r="E111" s="6"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="4"/>
+      <c r="M111" s="1"/>
+      <c r="U111" s="1"/>
+    </row>
+    <row r="112" spans="1:21">
+      <c r="A112" s="1"/>
+      <c r="E112" s="6"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="4"/>
+      <c r="M112" s="1"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="U112" s="1"/>
+    </row>
+    <row r="113" spans="1:21">
+      <c r="A113" s="1"/>
+      <c r="E113" s="6"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="4"/>
+      <c r="M113" s="1"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="U113" s="1"/>
+    </row>
+    <row r="114" spans="1:21">
+      <c r="A114" s="1"/>
+      <c r="E114" s="6"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="4"/>
+      <c r="M114" s="1"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="U114" s="1"/>
+    </row>
+    <row r="115" spans="1:21">
+      <c r="A115" s="1"/>
+      <c r="E115" s="6"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="4"/>
+      <c r="M115" s="1"/>
+      <c r="U115" s="1"/>
+    </row>
+    <row r="116" spans="1:21">
+      <c r="A116" s="1"/>
+      <c r="E116" s="6"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
+      <c r="M116" s="1"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="U116" s="1"/>
+    </row>
+    <row r="117" spans="1:21">
+      <c r="A117" s="1"/>
+      <c r="E117" s="6"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
+      <c r="M117" s="1"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="U117" s="1"/>
+    </row>
+    <row r="118" spans="1:21">
+      <c r="A118" s="1"/>
+      <c r="E118" s="6"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="4"/>
+      <c r="M118" s="1"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="U118" s="1"/>
+    </row>
+    <row r="119" spans="1:21">
+      <c r="A119" s="1"/>
+      <c r="E119" s="6"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="4"/>
+      <c r="M119" s="1"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="U119" s="1"/>
+    </row>
+    <row r="120" spans="1:21">
+      <c r="A120" s="1"/>
+      <c r="E120" s="6"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="4"/>
+      <c r="M120" s="1"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="U120" s="1"/>
+    </row>
+    <row r="121" spans="1:21">
+      <c r="A121" s="1"/>
+      <c r="E121" s="6"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="4"/>
+      <c r="M121" s="1"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="U121" s="1"/>
+    </row>
+    <row r="122" spans="1:21">
+      <c r="A122" s="1"/>
+      <c r="E122" s="6"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="4"/>
+      <c r="M122" s="1"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="U122" s="1"/>
+    </row>
+    <row r="123" spans="1:21">
+      <c r="A123" s="1"/>
+      <c r="E123" s="6"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="4"/>
+      <c r="M123" s="1"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="U123" s="1"/>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="A124" s="1"/>
+      <c r="E124" s="6"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="4"/>
+      <c r="M124" s="1"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="U124" s="1"/>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125" s="1"/>
+      <c r="E125" s="6"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="4"/>
+      <c r="M125" s="1"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="U125" s="1"/>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="A126" s="1"/>
+      <c r="E126" s="6"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="4"/>
+      <c r="M126" s="1"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="U126" s="1"/>
+    </row>
+    <row r="127" spans="1:21">
+      <c r="A127" s="1"/>
+      <c r="E127" s="6"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="4"/>
+      <c r="M127" s="1"/>
+      <c r="U127" s="1"/>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="A128" s="1"/>
+      <c r="E128" s="6"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="4"/>
+      <c r="M128" s="1"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="U128" s="1"/>
+    </row>
+    <row r="129" spans="1:21">
+      <c r="A129" s="1"/>
+      <c r="E129" s="6"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="4"/>
+      <c r="M129" s="1"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="U129" s="1"/>
+    </row>
+    <row r="130" spans="1:21">
+      <c r="A130" s="1"/>
+      <c r="E130" s="6"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="4"/>
+      <c r="M130" s="1"/>
+      <c r="U130" s="1"/>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="A131" s="1"/>
+      <c r="E131" s="6"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="4"/>
+      <c r="M131" s="1"/>
+      <c r="U131" s="1"/>
+    </row>
+    <row r="132" spans="1:21">
+      <c r="A132" s="1"/>
+      <c r="E132" s="6"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="6"/>
+      <c r="M132" s="1"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="U132" s="1"/>
+    </row>
+    <row r="133" spans="1:21">
+      <c r="A133" s="1"/>
+      <c r="E133" s="6"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="6"/>
+      <c r="M133" s="1"/>
+      <c r="U133" s="1"/>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="A134" s="1"/>
+      <c r="E134" s="6"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="4"/>
+      <c r="M134" s="1"/>
+      <c r="U134" s="1"/>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="A135" s="1"/>
+      <c r="E135" s="6"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
+      <c r="M135" s="1"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="U135" s="1"/>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="A136" s="1"/>
+      <c r="E136" s="6"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="4"/>
+      <c r="M136" s="1"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="U136" s="1"/>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="A137" s="1"/>
+      <c r="E137" s="6"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="4"/>
+      <c r="M137" s="1"/>
+      <c r="U137" s="1"/>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="A138" s="1"/>
+      <c r="E138" s="6"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="4"/>
+      <c r="M138" s="1"/>
+      <c r="U138" s="1"/>
+    </row>
+    <row r="139" spans="1:21">
+      <c r="A139" s="1"/>
+      <c r="E139" s="6"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="4"/>
+      <c r="M139" s="1"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="U139" s="1"/>
+    </row>
+    <row r="140" spans="1:21">
+      <c r="A140" s="1"/>
+      <c r="E140" s="6"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="4"/>
+      <c r="M140" s="1"/>
+      <c r="U140" s="1"/>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="A141" s="1"/>
+      <c r="E141" s="6"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="6"/>
+      <c r="M141" s="1"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="U141" s="1"/>
+    </row>
+    <row r="142" spans="1:21">
+      <c r="A142" s="1"/>
+      <c r="E142" s="6"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="6"/>
+      <c r="M142" s="1"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="U142" s="1"/>
+    </row>
+    <row r="143" spans="1:21">
+      <c r="A143" s="1"/>
+      <c r="E143" s="6"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="6"/>
+      <c r="M143" s="1"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="U143" s="1"/>
+    </row>
+    <row r="144" spans="1:21">
+      <c r="A144" s="1"/>
+      <c r="E144" s="6"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="6"/>
+      <c r="M144" s="1"/>
+      <c r="U144" s="1"/>
+    </row>
+    <row r="145" spans="1:21">
+      <c r="A145" s="1"/>
+      <c r="E145" s="6"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="4"/>
+      <c r="M145" s="1"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="U145" s="1"/>
+    </row>
+    <row r="146" spans="1:21">
+      <c r="A146" s="1"/>
+      <c r="E146" s="6"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="4"/>
+      <c r="M146" s="1"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="U146" s="1"/>
+    </row>
+    <row r="147" spans="1:21">
+      <c r="A147" s="1"/>
+      <c r="E147" s="6"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="4"/>
+      <c r="M147" s="1"/>
+      <c r="U147" s="1"/>
+    </row>
+    <row r="148" spans="1:21">
+      <c r="A148" s="1"/>
+      <c r="E148" s="6"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="4"/>
+      <c r="M148" s="1"/>
+      <c r="U148" s="1"/>
+    </row>
+    <row r="149" spans="1:21">
+      <c r="A149" s="1"/>
+      <c r="E149" s="6"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="4"/>
+      <c r="M149" s="1"/>
+      <c r="O149" s="2"/>
+      <c r="P149" s="2"/>
+      <c r="R149" s="2"/>
+      <c r="S149" s="2"/>
+      <c r="U149" s="1"/>
+    </row>
+    <row r="150" spans="1:21">
+      <c r="A150" s="1"/>
+      <c r="E150" s="6"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="4"/>
+      <c r="M150" s="1"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="U150" s="1"/>
+    </row>
+    <row r="151" spans="1:21">
+      <c r="A151" s="1"/>
+      <c r="E151" s="6"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="4"/>
+      <c r="M151" s="1"/>
+      <c r="U151" s="1"/>
+    </row>
+    <row r="152" spans="1:21">
+      <c r="A152" s="1"/>
+      <c r="E152" s="6"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="4"/>
+      <c r="M152" s="1"/>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
+      <c r="U152" s="1"/>
+    </row>
+    <row r="153" spans="1:21">
+      <c r="A153" s="1"/>
+      <c r="E153" s="6"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="4"/>
+      <c r="M153" s="1"/>
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="U153" s="1"/>
+    </row>
+    <row r="154" spans="1:21">
+      <c r="A154" s="1"/>
+      <c r="E154" s="6"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="4"/>
+      <c r="M154" s="1"/>
+      <c r="U154" s="1"/>
+    </row>
+    <row r="155" spans="1:21">
+      <c r="A155" s="1"/>
+      <c r="E155" s="6"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="4"/>
+      <c r="M155" s="1"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="U155" s="1"/>
+    </row>
+    <row r="156" spans="1:21">
+      <c r="A156" s="1"/>
+      <c r="E156" s="6"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="4"/>
+      <c r="M156" s="1"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="U156" s="1"/>
+    </row>
+    <row r="157" spans="1:21">
+      <c r="A157" s="1"/>
+      <c r="E157" s="6"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="4"/>
+      <c r="M157" s="1"/>
+      <c r="U157" s="1"/>
+    </row>
+    <row r="158" spans="1:21">
+      <c r="A158" s="1"/>
+      <c r="E158" s="6"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="4"/>
+      <c r="M158" s="1"/>
+      <c r="U158" s="1"/>
+    </row>
+    <row r="159" spans="1:21">
+      <c r="A159" s="1"/>
+      <c r="E159" s="6"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="4"/>
+      <c r="M159" s="1"/>
+      <c r="U159" s="1"/>
+    </row>
+    <row r="160" spans="1:21">
+      <c r="A160" s="1"/>
+      <c r="E160" s="6"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="4"/>
+      <c r="M160" s="1"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="U160" s="1"/>
+    </row>
+    <row r="161" spans="1:21">
+      <c r="A161" s="1"/>
+      <c r="E161" s="6"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="4"/>
+      <c r="M161" s="1"/>
+      <c r="U161" s="1"/>
+    </row>
+    <row r="162" spans="1:21">
+      <c r="A162" s="1"/>
+      <c r="E162" s="6"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="4"/>
+      <c r="M162" s="1"/>
+      <c r="U162" s="1"/>
+    </row>
+    <row r="163" spans="1:21">
+      <c r="A163" s="1"/>
+      <c r="E163" s="6"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="4"/>
+      <c r="M163" s="1"/>
+      <c r="U163" s="1"/>
+    </row>
+    <row r="164" spans="1:21">
+      <c r="A164" s="1"/>
+      <c r="E164" s="6"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="4"/>
+      <c r="M164" s="1"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="U164" s="1"/>
+    </row>
+    <row r="165" spans="1:21">
+      <c r="A165" s="1"/>
+      <c r="E165" s="6"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="4"/>
+      <c r="M165" s="1"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="U165" s="1"/>
+    </row>
+    <row r="166" spans="1:21">
+      <c r="A166" s="1"/>
+      <c r="E166" s="6"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="4"/>
+      <c r="M166" s="1"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="U166" s="1"/>
+    </row>
+    <row r="167" spans="1:21">
+      <c r="A167" s="1"/>
+      <c r="E167" s="6"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="4"/>
+      <c r="M167" s="1"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="U167" s="1"/>
+    </row>
+    <row r="168" spans="1:21">
+      <c r="A168" s="1"/>
+      <c r="E168" s="6"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="4"/>
+      <c r="M168" s="1"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="U168" s="1"/>
+    </row>
+    <row r="169" spans="1:21">
+      <c r="A169" s="1"/>
+      <c r="E169" s="6"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="4"/>
+      <c r="M169" s="1"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="U169" s="1"/>
+    </row>
+    <row r="170" spans="1:21">
+      <c r="A170" s="1"/>
+      <c r="E170" s="6"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="4"/>
+      <c r="M170" s="1"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="U170" s="1"/>
+    </row>
+    <row r="171" spans="1:21">
+      <c r="A171" s="1"/>
+      <c r="E171" s="6"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="4"/>
+      <c r="M171" s="1"/>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="U171" s="1"/>
+    </row>
+    <row r="172" spans="1:21">
+      <c r="A172" s="1"/>
+      <c r="E172" s="6"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="4"/>
+      <c r="M172" s="1"/>
+      <c r="U172" s="1"/>
+    </row>
+    <row r="173" spans="1:21">
+      <c r="A173" s="1"/>
+      <c r="E173" s="6"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="4"/>
+      <c r="M173" s="1"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="U173" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{E13B3A50-9E75-4446-BDC6-64D0EF16D839}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{E0C8EED9-DA74-4FF3-AD18-8C8F987234D0}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{82F96083-D092-4879-AC51-342888856CF2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>